--- a/LINKS.xlsx
+++ b/LINKS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>http://business.telus.com/en/business/on/internet-of-things</t>
   </si>
@@ -213,9 +213,6 @@
     <t>http://www.inlogic.ae/</t>
   </si>
   <si>
-    <t>IOT COMPANIES IN UAE</t>
-  </si>
-  <si>
     <t>http://smartiot.global/</t>
   </si>
   <si>
@@ -235,6 +232,15 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=u1ymmRQ_p3k</t>
+  </si>
+  <si>
+    <t>http://nevonprojects.com/iot-projects/</t>
+  </si>
+  <si>
+    <t>IOT COMPANIES IN UAE, INDIA</t>
+  </si>
+  <si>
+    <t>http://nevonexpress.com/</t>
   </si>
 </sst>
 </file>
@@ -791,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520E28F6-32F6-469E-BC29-C9A746607939}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -811,7 +817,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
@@ -859,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>8</v>
@@ -873,7 +879,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>9</v>
@@ -887,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>10</v>
@@ -900,7 +906,9 @@
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
@@ -1048,7 +1056,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="12"/>
       <c r="D23" s="17" t="s">
@@ -1056,8 +1064,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>67</v>
+      <c r="A24" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="B24" s="12"/>
       <c r="D24" s="21" t="s">
@@ -1065,22 +1073,25 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>68</v>
+      <c r="A25" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>69</v>
+      <c r="A26" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D27" s="21" t="s">
         <v>48</v>
       </c>
@@ -1134,8 +1145,9 @@
     <hyperlink ref="A24" r:id="rId25" xr:uid="{B9C9A11E-91BE-4E98-8BA8-6848845F772A}"/>
     <hyperlink ref="A25" r:id="rId26" xr:uid="{29524D15-2ACD-449E-A6E3-2A700F0686E9}"/>
     <hyperlink ref="A26" r:id="rId27" xr:uid="{23D59092-7671-4BD3-BA0D-32F57E9FCF96}"/>
+    <hyperlink ref="A27" r:id="rId28" xr:uid="{B8A0C3D8-1D80-48F3-98F0-80971518B93B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/LINKS.xlsx
+++ b/LINKS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>http://business.telus.com/en/business/on/internet-of-things</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>http://nevonexpress.com/</t>
+  </si>
+  <si>
+    <t>https://iot-analytics.com/iot-security-lessons-from-recent-iot-projects/</t>
+  </si>
+  <si>
+    <t>http://www.simpleiothings.com</t>
   </si>
 </sst>
 </file>
@@ -797,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520E28F6-32F6-469E-BC29-C9A746607939}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1089,7 +1095,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -1097,11 +1103,17 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D28" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D29" s="21" t="s">
         <v>49</v>
       </c>
@@ -1146,8 +1158,10 @@
     <hyperlink ref="A25" r:id="rId26" xr:uid="{29524D15-2ACD-449E-A6E3-2A700F0686E9}"/>
     <hyperlink ref="A26" r:id="rId27" xr:uid="{23D59092-7671-4BD3-BA0D-32F57E9FCF96}"/>
     <hyperlink ref="A27" r:id="rId28" xr:uid="{B8A0C3D8-1D80-48F3-98F0-80971518B93B}"/>
+    <hyperlink ref="A28" r:id="rId29" xr:uid="{97B2969E-B4A9-4839-A842-1FBF59AB73E4}"/>
+    <hyperlink ref="A29" r:id="rId30" xr:uid="{662C2CA1-9AB3-484A-9E99-A914B68605C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/LINKS.xlsx
+++ b/LINKS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>http://business.telus.com/en/business/on/internet-of-things</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>http://www.simpleiothings.com</t>
+  </si>
+  <si>
+    <t>https://makezine.com/?s=iot</t>
+  </si>
+  <si>
+    <t>https://exosite.com/platform/</t>
+  </si>
+  <si>
+    <t>EXOSITE</t>
   </si>
 </sst>
 </file>
@@ -801,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520E28F6-32F6-469E-BC29-C9A746607939}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -926,7 +935,9 @@
       <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="C9" s="13" t="s">
         <v>11</v>
       </c>
@@ -1103,7 +1114,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="21" t="s">
@@ -1111,7 +1122,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D29" s="21" t="s">
@@ -1119,6 +1130,9 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="D30" s="21" t="s">
         <v>50</v>
       </c>
@@ -1126,6 +1140,11 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D31" s="19" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D32" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1160,8 +1179,9 @@
     <hyperlink ref="A27" r:id="rId28" xr:uid="{B8A0C3D8-1D80-48F3-98F0-80971518B93B}"/>
     <hyperlink ref="A28" r:id="rId29" xr:uid="{97B2969E-B4A9-4839-A842-1FBF59AB73E4}"/>
     <hyperlink ref="A29" r:id="rId30" xr:uid="{662C2CA1-9AB3-484A-9E99-A914B68605C2}"/>
+    <hyperlink ref="A30" r:id="rId31" xr:uid="{CBEA4C82-8A8D-430F-AF3F-C510C07DE966}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>